--- a/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>44563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32197</v>
+        <v>33219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59419</v>
+        <v>58174</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1525204268999628</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1101995475150933</v>
+        <v>0.113697319816526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2033674022898348</v>
+        <v>0.1991076529865387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -763,19 +763,19 @@
         <v>40952</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30853</v>
+        <v>30139</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54113</v>
+        <v>53604</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1418471692642801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.106867928762237</v>
+        <v>0.1043958035356486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1874338941434823</v>
+        <v>0.1856712434179962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -784,19 +784,19 @@
         <v>85514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67869</v>
+        <v>67449</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103938</v>
+        <v>104768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1472156877168851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.116839023205256</v>
+        <v>0.1161151103000312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.178932075555748</v>
+        <v>0.1803617598084013</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>247611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232755</v>
+        <v>234000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259977</v>
+        <v>258955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8474795731000372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7966325977101651</v>
+        <v>0.8008923470134612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8898004524849067</v>
+        <v>0.8863026801834739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -834,19 +834,19 @@
         <v>247751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234590</v>
+        <v>235099</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257850</v>
+        <v>258564</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8581528307357199</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8125661058565178</v>
+        <v>0.814328756582004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8931320712377629</v>
+        <v>0.8956041964643513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>461</v>
@@ -855,19 +855,19 @@
         <v>495363</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>476939</v>
+        <v>476109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>513008</v>
+        <v>513428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8527843122831149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.821067924444252</v>
+        <v>0.8196382401915987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8831609767947438</v>
+        <v>0.8838848896999689</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>67597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51576</v>
+        <v>53647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82683</v>
+        <v>83263</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1345020850838056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1026243028199106</v>
+        <v>0.106744643307513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1645191700605878</v>
+        <v>0.16567280773487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -980,19 +980,19 @@
         <v>40097</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29730</v>
+        <v>28729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52301</v>
+        <v>53004</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07685328017019509</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05698200015469281</v>
+        <v>0.05506455833935109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1002434063667465</v>
+        <v>0.1015922038964334</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -1001,19 +1001,19 @@
         <v>107695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85707</v>
+        <v>88797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126361</v>
+        <v>126550</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1051384704904139</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08367233194549344</v>
+        <v>0.08668920029960603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1233623133150509</v>
+        <v>0.1235464660612935</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>434978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419892</v>
+        <v>419312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450999</v>
+        <v>448928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8654979149161944</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8354808299394122</v>
+        <v>0.83432719226513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8973756971800894</v>
+        <v>0.8932553566924869</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>443</v>
@@ -1051,19 +1051,19 @@
         <v>481640</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>469436</v>
+        <v>468733</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492007</v>
+        <v>493008</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9231467198298049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8997565936332533</v>
+        <v>0.8984077961035666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9430179998453071</v>
+        <v>0.9449354416606489</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>851</v>
@@ -1072,19 +1072,19 @@
         <v>916617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>897951</v>
+        <v>897762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>938605</v>
+        <v>935515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8948615295095861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8766376866849492</v>
+        <v>0.8764535339387065</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9163276680545065</v>
+        <v>0.913310799700394</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>60666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48640</v>
+        <v>46185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74838</v>
+        <v>74341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1921995637660694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1541016205907275</v>
+        <v>0.1463231050484528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2371011372512375</v>
+        <v>0.2355263777651461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1197,19 +1197,19 @@
         <v>33953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23432</v>
+        <v>23578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46264</v>
+        <v>46720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.100957985475753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06967333694638983</v>
+        <v>0.07010792419229633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1375634336802527</v>
+        <v>0.1389186877741012</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -1218,19 +1218,19 @@
         <v>94619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79087</v>
+        <v>77974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112553</v>
+        <v>113474</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1451323807288789</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1213095015463934</v>
+        <v>0.1196011429090908</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1726409571281046</v>
+        <v>0.1740531823997949</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>254973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240801</v>
+        <v>241298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266999</v>
+        <v>269454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8078004362339306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7628988627487625</v>
+        <v>0.764473622234854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8458983794092725</v>
+        <v>0.8536768949515473</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -1268,19 +1268,19 @@
         <v>302356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290045</v>
+        <v>289589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>312877</v>
+        <v>312731</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.899042014524247</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8624365663197472</v>
+        <v>0.8610813122259001</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9303266630536101</v>
+        <v>0.9298920758077039</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -1289,19 +1289,19 @@
         <v>557329</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>539395</v>
+        <v>538474</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572861</v>
+        <v>573974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8548676192711211</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8273590428718952</v>
+        <v>0.8259468176002045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8786904984536064</v>
+        <v>0.8803988570909089</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>46496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34790</v>
+        <v>34550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61562</v>
+        <v>61177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1259835040875661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09426368631929553</v>
+        <v>0.0936140123057131</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1668052713722841</v>
+        <v>0.1657604601578259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1414,19 +1414,19 @@
         <v>21935</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13646</v>
+        <v>14005</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32325</v>
+        <v>35226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05728990282136651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03564156632275491</v>
+        <v>0.03657789188826017</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08442529346105677</v>
+        <v>0.09200326860046464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -1435,19 +1435,19 @@
         <v>68431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53047</v>
+        <v>54683</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85418</v>
+        <v>86707</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09100564992336356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07054556007071984</v>
+        <v>0.07272155593608563</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1135958553150463</v>
+        <v>0.1153097706665682</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>322570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>307504</v>
+        <v>307889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334276</v>
+        <v>334516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8740164959124339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.833194728627716</v>
+        <v>0.8342395398421742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9057363136807045</v>
+        <v>0.9063859876942869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -1485,19 +1485,19 @@
         <v>360946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350556</v>
+        <v>347655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369235</v>
+        <v>368876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9427100971786335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9155747065389431</v>
+        <v>0.9079967313995352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9643584336772451</v>
+        <v>0.9634221081117397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>643</v>
@@ -1506,19 +1506,19 @@
         <v>683516</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>666529</v>
+        <v>665240</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698900</v>
+        <v>697264</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9089943500766364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8864041446849538</v>
+        <v>0.8846902293334319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9294544399292803</v>
+        <v>0.9272784440639145</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>19922</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12424</v>
+        <v>13243</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29400</v>
+        <v>30274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09479786727652191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05911707916947398</v>
+        <v>0.06301580758680227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1398956741816574</v>
+        <v>0.1440549455712558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1631,19 +1631,19 @@
         <v>10418</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5477</v>
+        <v>5413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17589</v>
+        <v>17569</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04785888745754209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02516064783930604</v>
+        <v>0.02486482063907656</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08080258323637235</v>
+        <v>0.0807115313938095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1652,19 +1652,19 @@
         <v>30340</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21024</v>
+        <v>21771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42573</v>
+        <v>41625</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07091570898449626</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04914145901637602</v>
+        <v>0.05088631419082545</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09950744434378084</v>
+        <v>0.09729308927397831</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>190233</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180755</v>
+        <v>179881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197731</v>
+        <v>196912</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.905202132723478</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8601043258183425</v>
+        <v>0.8559450544287445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9408829208305259</v>
+        <v>0.9369841924131977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -1702,19 +1702,19 @@
         <v>207260</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200089</v>
+        <v>200109</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212201</v>
+        <v>212265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9521411125424579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9191974167636277</v>
+        <v>0.9192884686061908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.974839352160694</v>
+        <v>0.9751351793609234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>402</v>
@@ -1723,19 +1723,19 @@
         <v>397493</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385260</v>
+        <v>386208</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406809</v>
+        <v>406062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9290842910155037</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.900492555656219</v>
+        <v>0.9027069107260216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9508585409836239</v>
+        <v>0.9491136858091744</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>16449</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9784</v>
+        <v>9522</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25526</v>
+        <v>25131</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06251446941446587</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03718426282410424</v>
+        <v>0.03618875052696287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09701200324459057</v>
+        <v>0.0955092014192461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1848,19 +1848,19 @@
         <v>9060</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4416</v>
+        <v>3884</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16317</v>
+        <v>15952</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0331740445555752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01617003598243788</v>
+        <v>0.01422039603803718</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05974431716579238</v>
+        <v>0.05840785031181082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1869,19 +1869,19 @@
         <v>25509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17364</v>
+        <v>16857</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36088</v>
+        <v>36770</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04757089929477174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03238082822007324</v>
+        <v>0.0314362641764877</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06729925081070184</v>
+        <v>0.0685695941649874</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>246674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237597</v>
+        <v>237992</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253339</v>
+        <v>253601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9374855305855342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9029879967554094</v>
+        <v>0.9044907985807535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9628157371758959</v>
+        <v>0.963811249473037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -1919,19 +1919,19 @@
         <v>264055</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256798</v>
+        <v>257163</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268699</v>
+        <v>269231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9668259554444248</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9402556828342076</v>
+        <v>0.9415921496881887</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9838299640175622</v>
+        <v>0.9857796039619625</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>496</v>
@@ -1940,19 +1940,19 @@
         <v>510729</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>500150</v>
+        <v>499468</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518874</v>
+        <v>519381</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9524291007052282</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9327007491892982</v>
+        <v>0.9314304058350126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9676191717799266</v>
+        <v>0.9685637358235123</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>54704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42034</v>
+        <v>41205</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70581</v>
+        <v>70861</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08501274730136305</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06532273404335022</v>
+        <v>0.06403449840295421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1096868076444861</v>
+        <v>0.1101231507424178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2065,19 +2065,19 @@
         <v>34864</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25659</v>
+        <v>25291</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49338</v>
+        <v>48152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05125041024872596</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03771913560354347</v>
+        <v>0.03717910257651753</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07252830520031618</v>
+        <v>0.07078439045888145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -2086,19 +2086,19 @@
         <v>89567</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73393</v>
+        <v>72071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109941</v>
+        <v>109858</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06766245541874542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05544390768172192</v>
+        <v>0.05444474321500543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08305337485172168</v>
+        <v>0.08299104401119442</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>588771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>572894</v>
+        <v>572614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>601441</v>
+        <v>602270</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.914987252698637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8903131923555139</v>
+        <v>0.8898768492575821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9346772659566499</v>
+        <v>0.9359655015970458</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>603</v>
@@ -2136,19 +2136,19 @@
         <v>645397</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>630923</v>
+        <v>632109</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>654602</v>
+        <v>654970</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.948749589751274</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9274716947996835</v>
+        <v>0.9292156095411184</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9622808643964564</v>
+        <v>0.9628208974234824</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1123</v>
@@ -2157,19 +2157,19 @@
         <v>1234170</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1213796</v>
+        <v>1213879</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1250344</v>
+        <v>1251666</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9323375445812546</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9169466251482784</v>
+        <v>0.9170089559888061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9445560923182782</v>
+        <v>0.9455552567849946</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>108539</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91102</v>
+        <v>90461</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129242</v>
+        <v>129378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1395901551902601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.117164932029404</v>
+        <v>0.1163398862964365</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.166215720351267</v>
+        <v>0.166390514361466</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -2282,19 +2282,19 @@
         <v>85024</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68210</v>
+        <v>67737</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102666</v>
+        <v>104194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1036297146175152</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08313602483652389</v>
+        <v>0.08255925457871732</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1251318221677197</v>
+        <v>0.1269941454371773</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -2303,19 +2303,19 @@
         <v>193563</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>169239</v>
+        <v>166261</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>221151</v>
+        <v>219550</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1211272036371335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1059057704924062</v>
+        <v>0.1040418095507622</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1383909339496427</v>
+        <v>0.1373890372610434</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>669018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>648315</v>
+        <v>648179</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>686455</v>
+        <v>687096</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8604098448097399</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8337842796487326</v>
+        <v>0.833609485638534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.882835067970596</v>
+        <v>0.883660113703563</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>669</v>
@@ -2353,19 +2353,19 @@
         <v>735437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>717795</v>
+        <v>716267</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>752251</v>
+        <v>752724</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8963702853824849</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8748681778322804</v>
+        <v>0.8730058545628228</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9168639751634761</v>
+        <v>0.9174407454212827</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1314</v>
@@ -2374,19 +2374,19 @@
         <v>1404455</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1376867</v>
+        <v>1378468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1428779</v>
+        <v>1431757</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8788727963628665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8616090660503573</v>
+        <v>0.8626109627389567</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8940942295075938</v>
+        <v>0.8959581904492382</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>418936</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>384347</v>
+        <v>380569</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>460525</v>
+        <v>458505</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1241746394896912</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1139221344040904</v>
+        <v>0.1128025675194444</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1365019393090566</v>
+        <v>0.1359031338868905</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>273</v>
@@ -2499,19 +2499,19 @@
         <v>276303</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>248405</v>
+        <v>248413</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>308604</v>
+        <v>309412</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07846968218273359</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07054665941004624</v>
+        <v>0.07054893871464281</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08764291647142873</v>
+        <v>0.08787261539516761</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>678</v>
@@ -2520,19 +2520,19 @@
         <v>695239</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>648106</v>
+        <v>643622</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>748598</v>
+        <v>745645</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1008336839739633</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09399777843838782</v>
+        <v>0.09334744705178009</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1085725741294691</v>
+        <v>0.108144241672606</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2954829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2913240</v>
+        <v>2915260</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2989418</v>
+        <v>2993196</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8758253605103088</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8634980606909434</v>
+        <v>0.8640968661131097</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8860778655959096</v>
+        <v>0.8871974324805556</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3046</v>
@@ -2570,19 +2570,19 @@
         <v>3244843</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3212542</v>
+        <v>3211734</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3272741</v>
+        <v>3272733</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9215303178172664</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9123570835285711</v>
+        <v>0.9121273846048324</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9294533405899538</v>
+        <v>0.9294510612853573</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5854</v>
@@ -2591,19 +2591,19 @@
         <v>6199672</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6146313</v>
+        <v>6149266</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6246805</v>
+        <v>6251289</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8991663160260367</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8914274258705305</v>
+        <v>0.8918557583273939</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9060022215616121</v>
+        <v>0.9066525529482199</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6116</v>
+        <v>5999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003441104100016069</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01935169660230099</v>
+        <v>0.01898148501910465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6312</v>
+        <v>6570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001713005869317368</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009942278015396475</v>
+        <v>0.01034861091773025</v>
       </c>
     </row>
     <row r="5">
@@ -3015,7 +3015,7 @@
         <v>314973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309945</v>
+        <v>310062</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
@@ -3024,7 +3024,7 @@
         <v>0.9965588958999839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9806483033976992</v>
+        <v>0.9810185149808959</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>633818</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628594</v>
+        <v>628336</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>634906</v>
@@ -3045,7 +3045,7 @@
         <v>0.9982869941306827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9900577219846027</v>
+        <v>0.9896513890822696</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -3140,19 +3140,19 @@
         <v>20465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9945</v>
+        <v>10240</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36930</v>
+        <v>37476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03856561975948256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01874203549893084</v>
+        <v>0.01929709405441178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0695935309267262</v>
+        <v>0.07062377996778893</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -3161,19 +3161,19 @@
         <v>12671</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7184</v>
+        <v>7333</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20730</v>
+        <v>20627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02324472576095774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01317899248037369</v>
+        <v>0.01345234152985234</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03802909846529391</v>
+        <v>0.03783979899459805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3182,19 +3182,19 @@
         <v>33136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22441</v>
+        <v>21604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53929</v>
+        <v>50773</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03080219113193896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02086059241039426</v>
+        <v>0.02008237744783035</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05013117279431097</v>
+        <v>0.04719728223098573</v>
       </c>
     </row>
     <row r="8">
@@ -3211,19 +3211,19 @@
         <v>510182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493717</v>
+        <v>493171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>520702</v>
+        <v>520407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9614343802405174</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9304064690732737</v>
+        <v>0.929376220032211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9812579645010692</v>
+        <v>0.9807029059455882</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>700</v>
@@ -3232,19 +3232,19 @@
         <v>532438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>524379</v>
+        <v>524482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>537925</v>
+        <v>537776</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9767552742390424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9619709015347058</v>
+        <v>0.962160201005402</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9868210075196263</v>
+        <v>0.9865476584701478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1071</v>
@@ -3253,19 +3253,19 @@
         <v>1042620</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1021827</v>
+        <v>1024983</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1053315</v>
+        <v>1054152</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9691978088680612</v>
+        <v>0.9691978088680611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9498688272056888</v>
+        <v>0.9528027177690143</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9791394075896056</v>
+        <v>0.9799176225521697</v>
       </c>
     </row>
     <row r="9">
@@ -3357,19 +3357,19 @@
         <v>12813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7454</v>
+        <v>7181</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22328</v>
+        <v>21463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04107810409550397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02389856447409372</v>
+        <v>0.02302360290043905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07158474250860292</v>
+        <v>0.06881067764520693</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3378,19 +3378,19 @@
         <v>13986</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8567</v>
+        <v>8406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23724</v>
+        <v>22497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03990489286160386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02444517108727203</v>
+        <v>0.02398564922111499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0676909498831313</v>
+        <v>0.06418984514196532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3399,19 +3399,19 @@
         <v>26798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19126</v>
+        <v>17765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38956</v>
+        <v>38581</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04045734672852083</v>
+        <v>0.04045734672852084</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02887425491453782</v>
+        <v>0.02681951558064572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05881216110113593</v>
+        <v>0.05824530980492572</v>
       </c>
     </row>
     <row r="11">
@@ -3428,19 +3428,19 @@
         <v>299098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289583</v>
+        <v>290448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304457</v>
+        <v>304730</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9589218959044961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.928415257491397</v>
+        <v>0.9311893223547931</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9761014355259063</v>
+        <v>0.976976397099561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3449,19 +3449,19 @@
         <v>336489</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326751</v>
+        <v>327978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>341908</v>
+        <v>342069</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9600951071383961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9323090501168686</v>
+        <v>0.9358101548580352</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9755548289127282</v>
+        <v>0.9760143507788849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>854</v>
@@ -3470,19 +3470,19 @@
         <v>635588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623430</v>
+        <v>623805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643260</v>
+        <v>644621</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9595426532714788</v>
+        <v>0.9595426532714793</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.941187838898864</v>
+        <v>0.9417546901950742</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9711257450854623</v>
+        <v>0.9731804844193541</v>
       </c>
     </row>
     <row r="12">
@@ -3574,19 +3574,19 @@
         <v>22845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12447</v>
+        <v>11598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41566</v>
+        <v>39726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06122383027328741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03335721818346328</v>
+        <v>0.03108187861887283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1113947434374289</v>
+        <v>0.1064636231159134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3595,19 +3595,19 @@
         <v>6976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3197</v>
+        <v>3167</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13497</v>
+        <v>12626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01653283325252628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007575561906417202</v>
+        <v>0.007504628976578985</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03198638290097533</v>
+        <v>0.02992217409646739</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3616,19 +3616,19 @@
         <v>29822</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17351</v>
+        <v>18053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48680</v>
+        <v>47663</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03750641275452157</v>
+        <v>0.03750641275452156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02182189232852741</v>
+        <v>0.02270528258757941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06122505166979954</v>
+        <v>0.05994595688967808</v>
       </c>
     </row>
     <row r="14">
@@ -3645,19 +3645,19 @@
         <v>350300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>331579</v>
+        <v>333419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360698</v>
+        <v>361547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9387761697267127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8886052565625708</v>
+        <v>0.8935363768840866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9666427818165366</v>
+        <v>0.968918121381127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>590</v>
@@ -3666,19 +3666,19 @@
         <v>414985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>408464</v>
+        <v>409335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418764</v>
+        <v>418794</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9834671667474737</v>
+        <v>0.9834671667474738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9680136170990251</v>
+        <v>0.9700778259035326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9924244380935831</v>
+        <v>0.9924953710234213</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>870</v>
@@ -3687,19 +3687,19 @@
         <v>765285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>746427</v>
+        <v>747444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>777756</v>
+        <v>777054</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9624935872454783</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9387749483302003</v>
+        <v>0.9400540431103219</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9781781076714725</v>
+        <v>0.9772947174124206</v>
       </c>
     </row>
     <row r="15">
@@ -3791,19 +3791,19 @@
         <v>3258</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8051</v>
+        <v>7228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01584279866282952</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00592341632250991</v>
+        <v>0.005994356912186713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03914459152020026</v>
+        <v>0.03514404437180657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3812,19 +3812,19 @@
         <v>1893</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>652</v>
+        <v>450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4983</v>
+        <v>5469</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008360920582777246</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002881400316351063</v>
+        <v>0.001987049628583661</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02201264655981048</v>
+        <v>0.02415842810345247</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -3833,19 +3833,19 @@
         <v>5151</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2346</v>
+        <v>2339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9325</v>
+        <v>9679</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01192240231296826</v>
+        <v>0.01192240231296825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005430660832040774</v>
+        <v>0.005413635766368978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02158377642570719</v>
+        <v>0.02240313945805058</v>
       </c>
     </row>
     <row r="17">
@@ -3862,19 +3862,19 @@
         <v>202407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197614</v>
+        <v>198437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204447</v>
+        <v>204432</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9841572013371704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9608554084798001</v>
+        <v>0.9648559556281933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9940765836774902</v>
+        <v>0.9940056430878133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>486</v>
@@ -3883,19 +3883,19 @@
         <v>224498</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>221408</v>
+        <v>220922</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225739</v>
+        <v>225941</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9916390794172228</v>
+        <v>0.9916390794172227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9779873534401897</v>
+        <v>0.9758415718965477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.997118599683649</v>
+        <v>0.9980129503714164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>760</v>
@@ -3904,19 +3904,19 @@
         <v>426905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422731</v>
+        <v>422377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429710</v>
+        <v>429717</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9880775976870317</v>
+        <v>0.9880775976870316</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9784162235742929</v>
+        <v>0.9775968605419496</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9945693391679593</v>
+        <v>0.9945863642336311</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>8567</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4038</v>
+        <v>4262</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16855</v>
+        <v>16712</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03164703788690396</v>
+        <v>0.03164703788690397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01491609815536001</v>
+        <v>0.01574390487567412</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0622612169151455</v>
+        <v>0.06173616116866888</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4032,16 +4032,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6213</v>
+        <v>7803</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.005377953801437769</v>
+        <v>0.005377953801437766</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02355625877954459</v>
+        <v>0.02958620527966705</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -4050,19 +4050,19 @@
         <v>9986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4721</v>
+        <v>4325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20001</v>
+        <v>19281</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01868345974996663</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008832823550904098</v>
+        <v>0.008093016457204874</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03742240678884172</v>
+        <v>0.03607638366869603</v>
       </c>
     </row>
     <row r="20">
@@ -4079,19 +4079,19 @@
         <v>262140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253852</v>
+        <v>253995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266669</v>
+        <v>266445</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9683529621130961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9377387830848545</v>
+        <v>0.9382638388313306</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.98508390184464</v>
+        <v>0.9842560951243257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>459</v>
@@ -4100,16 +4100,16 @@
         <v>262332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257537</v>
+        <v>255947</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>263750</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9946220461985623</v>
+        <v>0.9946220461985621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9764437412204541</v>
+        <v>0.9704137947203338</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -4121,19 +4121,19 @@
         <v>524471</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514456</v>
+        <v>515176</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>529736</v>
+        <v>530132</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9813165402500333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.962577593211158</v>
+        <v>0.9639236163313041</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9911671764490957</v>
+        <v>0.9919069835427951</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>70780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51466</v>
+        <v>51518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93212</v>
+        <v>92366</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09834810062461663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07151102013339361</v>
+        <v>0.07158394980166491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.129516998914582</v>
+        <v>0.1283418148594599</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -4246,19 +4246,19 @@
         <v>38224</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26932</v>
+        <v>25884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54405</v>
+        <v>53751</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04961024537054746</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03495524497501818</v>
+        <v>0.03359481760360013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07061120106055536</v>
+        <v>0.06976234665120475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -4267,19 +4267,19 @@
         <v>109004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>87052</v>
+        <v>88876</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138414</v>
+        <v>137546</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07314853356817626</v>
+        <v>0.07314853356817629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05841755221822658</v>
+        <v>0.05964175772152228</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09288495962260594</v>
+        <v>0.0923022744211472</v>
       </c>
     </row>
     <row r="23">
@@ -4296,19 +4296,19 @@
         <v>648907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>626475</v>
+        <v>627321</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>668221</v>
+        <v>668169</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9016518993753835</v>
+        <v>0.9016518993753834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8704830010854181</v>
+        <v>0.8716581851405398</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9284889798666065</v>
+        <v>0.9284160501983351</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>920</v>
@@ -4317,19 +4317,19 @@
         <v>732257</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>716076</v>
+        <v>716730</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>743549</v>
+        <v>744597</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9503897546294524</v>
+        <v>0.9503897546294525</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9293887989394446</v>
+        <v>0.9302376533487953</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9650447550249819</v>
+        <v>0.9664051823963998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1470</v>
@@ -4338,19 +4338,19 @@
         <v>1381164</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1351754</v>
+        <v>1352622</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1403116</v>
+        <v>1401292</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9268514664318237</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9071150403773941</v>
+        <v>0.9076977255788528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9415824477817735</v>
+        <v>0.9403582422784776</v>
       </c>
     </row>
     <row r="24">
@@ -4442,19 +4442,19 @@
         <v>125049</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103407</v>
+        <v>101579</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151103</v>
+        <v>147908</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1566890367997855</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1295704773528978</v>
+        <v>0.1272807236694301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1893348518287032</v>
+        <v>0.1853310982368381</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -4463,19 +4463,19 @@
         <v>68121</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53635</v>
+        <v>54610</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86560</v>
+        <v>86138</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08194167429710564</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06451735550607854</v>
+        <v>0.06568972828901012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1041219018444628</v>
+        <v>0.103614852250861</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>172</v>
@@ -4484,19 +4484,19 @@
         <v>193170</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165929</v>
+        <v>166547</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>222127</v>
+        <v>222560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.118552480010912</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1018344512456212</v>
+        <v>0.1022134680498633</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1363241978979299</v>
+        <v>0.1365897406858056</v>
       </c>
     </row>
     <row r="26">
@@ -4513,19 +4513,19 @@
         <v>673023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>646969</v>
+        <v>650164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>694665</v>
+        <v>696493</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8433109632002144</v>
+        <v>0.8433109632002145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8106651481712971</v>
+        <v>0.8146689017631618</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8704295226471022</v>
+        <v>0.8727192763305698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>989</v>
@@ -4534,19 +4534,19 @@
         <v>763210</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>744771</v>
+        <v>745193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>777696</v>
+        <v>776721</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9180583257028944</v>
+        <v>0.9180583257028943</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8958780981555372</v>
+        <v>0.8963851477491387</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9354826444939216</v>
+        <v>0.9343102717109898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1652</v>
@@ -4555,19 +4555,19 @@
         <v>1436233</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1407276</v>
+        <v>1406843</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1463474</v>
+        <v>1462856</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8814475199890879</v>
+        <v>0.881447519989088</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8636758021020698</v>
+        <v>0.8634102593141944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8981655487543787</v>
+        <v>0.8977865319501366</v>
       </c>
     </row>
     <row r="27">
@@ -4659,19 +4659,19 @@
         <v>263777</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>230128</v>
+        <v>224612</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>304365</v>
+        <v>305494</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0747523738706181</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06521636856187842</v>
+        <v>0.06365324646364223</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08625461911091466</v>
+        <v>0.08657466552482941</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>158</v>
@@ -4680,19 +4680,19 @@
         <v>144376</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>122566</v>
+        <v>122618</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>170727</v>
+        <v>169646</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03875286191098209</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03289880444564754</v>
+        <v>0.03291259571586524</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0458258849606225</v>
+        <v>0.0455356586709189</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>355</v>
@@ -4701,19 +4701,19 @@
         <v>408153</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>364238</v>
+        <v>362349</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>459131</v>
+        <v>452428</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05626410501267202</v>
+        <v>0.05626410501267201</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05021039361473768</v>
+        <v>0.0499498918271697</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06329142376869849</v>
+        <v>0.06236735809112513</v>
       </c>
     </row>
     <row r="29">
@@ -4730,19 +4730,19 @@
         <v>3264903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3224315</v>
+        <v>3223186</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3298552</v>
+        <v>3304068</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9252476261293819</v>
+        <v>0.9252476261293817</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9137453808890854</v>
+        <v>0.9134253344751708</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9347836314381215</v>
+        <v>0.936346753536358</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5192</v>
@@ -4751,19 +4751,19 @@
         <v>3581184</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3554833</v>
+        <v>3555914</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3602994</v>
+        <v>3602942</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9612471380890178</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9541741150393775</v>
+        <v>0.954464341329081</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9671011955543525</v>
+        <v>0.9670874042841348</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8366</v>
@@ -4772,19 +4772,19 @@
         <v>6846087</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6795109</v>
+        <v>6801812</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6890002</v>
+        <v>6891891</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.943735894987328</v>
+        <v>0.9437358949873278</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9367085762313014</v>
+        <v>0.9376326419088747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9497896063852623</v>
+        <v>0.9500501081728302</v>
       </c>
     </row>
     <row r="30">
